--- a/Analyses Scripts_R/DAT1genotypes_forR.xlsx
+++ b/Analyses Scripts_R/DAT1genotypes_forR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\R-MNHS-SPP\Bellgrove-data\4. Dan Newman\Participant Folders_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\big_dots\Analyses Scripts_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="117">
   <si>
     <t>ID</t>
   </si>
@@ -1176,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1261,13 +1261,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1275,13 +1275,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1303,13 +1303,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -1317,13 +1317,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -1331,13 +1331,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -1359,10 +1359,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -1373,10 +1373,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -1387,13 +1387,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1415,13 +1415,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -1429,10 +1429,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -1457,13 +1457,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -1471,13 +1471,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -1513,13 +1513,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -1527,13 +1527,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -1583,13 +1583,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1597,13 +1597,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -1611,13 +1611,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -1625,10 +1622,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1636,7 +1630,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -1658,10 +1658,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -1672,10 +1672,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -1686,13 +1686,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -1700,7 +1694,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1708,13 +1708,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -1736,10 +1736,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -1750,10 +1750,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -1764,13 +1764,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -1778,13 +1778,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -1792,10 +1792,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -1806,10 +1806,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -1820,13 +1820,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -1834,7 +1828,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -1842,13 +1842,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -1884,13 +1884,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -1898,10 +1898,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -1912,13 +1912,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -1940,13 +1940,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
@@ -1954,13 +1954,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -1968,10 +1968,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -1996,13 +1996,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -2010,13 +2010,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
@@ -2024,13 +2024,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -2038,10 +2038,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>74</v>
-      </c>
-      <c r="B63" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
@@ -2052,7 +2049,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B65" t="s">
         <v>13</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -2105,10 +2105,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
@@ -2119,13 +2119,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -2133,13 +2133,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -2189,13 +2189,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -2203,13 +2203,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -2217,13 +2217,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
@@ -2231,13 +2231,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -2245,13 +2245,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -2259,13 +2259,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B79" t="s">
         <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -2273,13 +2273,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>92</v>
-      </c>
-      <c r="B80" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -2287,7 +2281,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
@@ -2295,7 +2289,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -2303,24 +2303,24 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B83" t="s">
         <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
@@ -2331,10 +2331,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B86" t="s">
         <v>13</v>
@@ -2359,13 +2359,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B87" t="s">
         <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D87" t="s">
         <v>97</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B88" t="s">
         <v>13</v>
@@ -2387,13 +2387,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
         <v>97</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -2415,13 +2415,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D91" t="s">
         <v>97</v>
@@ -2429,13 +2429,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D92" t="s">
         <v>97</v>
@@ -2443,13 +2443,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
         <v>97</v>
@@ -2457,7 +2457,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
@@ -2471,13 +2471,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D95" t="s">
         <v>97</v>
@@ -2485,10 +2485,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
@@ -2499,13 +2499,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
         <v>97</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
@@ -2541,13 +2541,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D100" t="s">
         <v>97</v>
@@ -2555,13 +2555,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
         <v>97</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
@@ -2578,20 +2578,6 @@
         <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>116</v>
-      </c>
-      <c r="B103" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103" t="s">
         <v>97</v>
       </c>
     </row>

--- a/Analyses Scripts_R/DAT1genotypes_forR.xlsx
+++ b/Analyses Scripts_R/DAT1genotypes_forR.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="117">
   <si>
     <t>ID</t>
   </si>
@@ -1178,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A81" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1822,6 +1822,9 @@
       <c r="A47" t="s">
         <v>58</v>
       </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
       <c r="D47" t="s">
         <v>7</v>
       </c>
@@ -2040,6 +2043,9 @@
       <c r="A63" t="s">
         <v>75</v>
       </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
       <c r="C63" t="s">
         <v>6</v>
       </c>
@@ -2275,6 +2281,9 @@
       <c r="A80" t="s">
         <v>93</v>
       </c>
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
       <c r="D80" t="s">
         <v>7</v>
       </c>
@@ -2282,6 +2291,9 @@
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>94</v>
+      </c>
+      <c r="B81" t="s">
+        <v>13</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>

--- a/Analyses Scripts_R/DAT1genotypes_forR.xlsx
+++ b/Analyses Scripts_R/DAT1genotypes_forR.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="DAT1genotypes_forR" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1178,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A81" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
